--- a/src/kraken_files/excel_files/ALGOUSD.xlsx
+++ b/src/kraken_files/excel_files/ALGOUSD.xlsx
@@ -484,13 +484,13 @@
         <v>31.25</v>
       </c>
       <c r="D2" t="n">
-        <v>1.73976904776</v>
+        <v>1.778743315536</v>
       </c>
       <c r="E2" t="n">
-        <v>1.77863296038</v>
+        <v>1.818477856668</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7964192899838</v>
+        <v>1.83666263523468</v>
       </c>
       <c r="G2" t="n">
         <v>3.153508901828306</v>
@@ -507,16 +507,16 @@
         <v>78.125</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6479445645056</v>
+        <v>1.68486178223616</v>
       </c>
       <c r="E3" t="n">
-        <v>1.7132887624428</v>
+        <v>1.75166981945208</v>
       </c>
       <c r="F3" t="n">
-        <v>1.730421650067228</v>
+        <v>1.769186517646601</v>
       </c>
       <c r="G3" t="n">
-        <v>4.766299910685001</v>
+        <v>4.766299910684991</v>
       </c>
     </row>
     <row r="4">
@@ -530,13 +530,13 @@
         <v>195.3125</v>
       </c>
       <c r="D4" t="n">
-        <v>1.504698370591525</v>
+        <v>1.538406590250365</v>
       </c>
       <c r="E4" t="n">
-        <v>1.608993566517162</v>
+        <v>1.645038204851223</v>
       </c>
       <c r="F4" t="n">
-        <v>1.625083502182334</v>
+        <v>1.661488586899735</v>
       </c>
       <c r="G4" t="n">
         <v>7.407935126357701</v>
@@ -553,13 +553,13 @@
         <v>488.28125</v>
       </c>
       <c r="D5" t="n">
-        <v>1.28123430815999</v>
+        <v>1.309936490828614</v>
       </c>
       <c r="E5" t="n">
-        <v>1.445113937338576</v>
+        <v>1.477487347839918</v>
       </c>
       <c r="F5" t="n">
-        <v>1.459565076711962</v>
+        <v>1.492262221318318</v>
       </c>
       <c r="G5" t="n">
         <v>12.21807587735019</v>
@@ -576,16 +576,16 @@
         <v>1220.703125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9326303707147</v>
+        <v>0.9535231356774201</v>
       </c>
       <c r="E6" t="n">
-        <v>1.188872154026638</v>
+        <v>1.215505241758669</v>
       </c>
       <c r="F6" t="n">
-        <v>1.200760875566904</v>
+        <v>1.227660294176256</v>
       </c>
       <c r="G6" t="n">
-        <v>22.33005007975584</v>
+        <v>22.33005007975585</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,21 +622,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OWK3S5-6PRUI-DOHX2Y</t>
+          <t>O7QK74-SAHCK-DOHWBC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.85472</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OEPX3Q-5ZVWZ-BVWTYE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.83567</v>
+        <v>1.87679</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,7 +658,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OLIRPR-H43BA-5IPGFV</t>
+          <t>OC24JQ-P7CJG-5E45V2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OH5JAF-MVZKF-CEDQ2M</t>
         </is>
       </c>
     </row>
